--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_LapDat.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Tùng</t>
   </si>
   <si>
-    <t>Sim</t>
-  </si>
-  <si>
     <t>Lock: 125.212.203.114,16565</t>
   </si>
   <si>
@@ -310,6 +307,12 @@
   </si>
   <si>
     <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Thay module GPS, nâng cấp khay sim, nâng cấp FW</t>
   </si>
 </sst>
 </file>
@@ -747,6 +750,18 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,15 +792,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -800,9 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1142,42 +1145,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1220,57 +1223,57 @@
       <c r="V3" s="31"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="87" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1295,23 +1298,23 @@
       <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1336,7 +1339,7 @@
       <c r="H6" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="74" t="s">
         <v>79</v>
       </c>
       <c r="J6" s="57" t="s">
@@ -1364,7 +1367,7 @@
         <v>74</v>
       </c>
       <c r="T6" s="13"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1387,9 +1390,7 @@
       <c r="E7" s="56">
         <v>869627031815012</v>
       </c>
-      <c r="F7" s="55" t="s">
-        <v>83</v>
-      </c>
+      <c r="F7" s="55"/>
       <c r="G7" s="55" t="s">
         <v>77</v>
       </c>
@@ -1397,17 +1398,17 @@
         <v>78</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="57"/>
       <c r="K7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" s="57" t="s">
         <v>69</v>
       </c>
       <c r="M7" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="57" t="s">
@@ -1419,12 +1420,14 @@
       <c r="Q7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="55"/>
+      <c r="R7" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T7" s="13"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="76"/>
       <c r="V7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1445,9 +1448,7 @@
       <c r="E8" s="56">
         <v>869627031758832</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>83</v>
-      </c>
+      <c r="F8" s="55"/>
       <c r="G8" s="55" t="s">
         <v>77</v>
       </c>
@@ -1455,17 +1456,17 @@
         <v>78</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="57"/>
       <c r="K8" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L8" s="57" t="s">
         <v>69</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="57" t="s">
@@ -1477,12 +1478,14 @@
       <c r="Q8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R8" s="55"/>
+      <c r="R8" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T8" s="13"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="76"/>
       <c r="V8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1494,7 +1497,9 @@
       <c r="B9" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54" t="s">
+        <v>76</v>
+      </c>
       <c r="D9" s="55" t="s">
         <v>47</v>
       </c>
@@ -1509,32 +1514,38 @@
         <v>78</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="57"/>
+        <v>83</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>92</v>
+      </c>
       <c r="K9" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" s="57" t="s">
         <v>69</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="57"/>
+      <c r="O9" s="57" t="s">
+        <v>72</v>
+      </c>
       <c r="P9" s="57" t="s">
         <v>82</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="55"/>
+      <c r="R9" s="55" t="s">
+        <v>22</v>
+      </c>
       <c r="S9" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T9" s="23"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="76"/>
       <c r="V9" s="3" t="s">
         <v>60</v>
       </c>
@@ -1555,9 +1566,7 @@
       <c r="E10" s="56">
         <v>864811037229619</v>
       </c>
-      <c r="F10" s="55" t="s">
-        <v>83</v>
-      </c>
+      <c r="F10" s="55"/>
       <c r="G10" s="55" t="s">
         <v>77</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>78</v>
       </c>
       <c r="I10" s="65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="57"/>
       <c r="K10" s="1" t="s">
@@ -1575,7 +1584,7 @@
         <v>71</v>
       </c>
       <c r="M10" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="57" t="s">
@@ -1587,12 +1596,14 @@
       <c r="Q10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R10" s="55"/>
+      <c r="R10" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T10" s="32"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="76"/>
       <c r="V10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1621,17 +1632,17 @@
         <v>78</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="57"/>
       <c r="K11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" s="57" t="s">
         <v>69</v>
       </c>
       <c r="M11" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="57" t="s">
@@ -1643,12 +1654,14 @@
       <c r="Q11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R11" s="55"/>
+      <c r="R11" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T11" s="13"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="76"/>
       <c r="V11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1669,9 +1682,7 @@
       <c r="E12" s="56">
         <v>865209034357104</v>
       </c>
-      <c r="F12" s="55" t="s">
-        <v>83</v>
-      </c>
+      <c r="F12" s="55"/>
       <c r="G12" s="55" t="s">
         <v>77</v>
       </c>
@@ -1679,17 +1690,17 @@
         <v>78</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" s="57"/>
       <c r="K12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12" s="57" t="s">
         <v>71</v>
       </c>
       <c r="M12" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="57" t="s">
@@ -1701,12 +1712,14 @@
       <c r="Q12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R12" s="55"/>
+      <c r="R12" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T12" s="13"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1737,7 +1750,7 @@
         <v>78</v>
       </c>
       <c r="I13" s="65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
@@ -1747,7 +1760,7 @@
         <v>71</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="57" t="s">
@@ -1759,12 +1772,14 @@
       <c r="Q13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R13" s="10"/>
+      <c r="R13" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="S13" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T13" s="13"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1792,7 +1807,7 @@
       <c r="R14" s="55"/>
       <c r="S14" s="3"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
         <v>37</v>
       </c>
@@ -1820,7 +1835,7 @@
       <c r="R15" s="55"/>
       <c r="S15" s="3"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1863,7 @@
       <c r="R16" s="55"/>
       <c r="S16" s="3"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
         <v>26</v>
       </c>
@@ -2200,7 +2215,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2417,7 +2432,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2479,7 +2494,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2757,7 +2772,7 @@
       <c r="T47" s="16"/>
       <c r="U47" s="16">
         <f>COUNTIF(J8:J19,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="18"/>
     </row>
@@ -2982,11 +2997,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3000,6 +3010,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3042,41 +3057,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="24"/>
       <c r="I2" s="62"/>
@@ -3121,58 +3136,58 @@
       <c r="W3" s="31"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="91" t="s">
         <v>66</v>
       </c>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -3197,24 +3212,24 @@
       <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -3240,7 +3255,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="30"/>
       <c r="U6" s="32"/>
-      <c r="V6" s="84" t="s">
+      <c r="V6" s="75" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -3271,7 +3286,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="30"/>
       <c r="U7" s="32"/>
-      <c r="V7" s="85"/>
+      <c r="V7" s="76"/>
       <c r="W7" s="3" t="s">
         <v>36</v>
       </c>
@@ -3300,7 +3315,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="30"/>
       <c r="U8" s="32"/>
-      <c r="V8" s="85"/>
+      <c r="V8" s="76"/>
       <c r="W8" s="3" t="s">
         <v>22</v>
       </c>
@@ -3329,7 +3344,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
-      <c r="V9" s="85"/>
+      <c r="V9" s="76"/>
       <c r="W9" s="3" t="s">
         <v>60</v>
       </c>
@@ -3358,7 +3373,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
-      <c r="V10" s="85"/>
+      <c r="V10" s="76"/>
       <c r="W10" s="3" t="s">
         <v>32</v>
       </c>
@@ -3387,7 +3402,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
-      <c r="V11" s="85"/>
+      <c r="V11" s="76"/>
       <c r="W11" s="3" t="s">
         <v>31</v>
       </c>
@@ -3416,7 +3431,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="32"/>
       <c r="U12" s="32"/>
-      <c r="V12" s="84" t="s">
+      <c r="V12" s="75" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -3447,7 +3462,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="32"/>
       <c r="U13" s="32"/>
-      <c r="V13" s="85"/>
+      <c r="V13" s="76"/>
       <c r="W13" s="3" t="s">
         <v>38</v>
       </c>
@@ -3476,7 +3491,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="32"/>
       <c r="U14" s="32"/>
-      <c r="V14" s="85"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="3" t="s">
         <v>37</v>
       </c>
@@ -3505,7 +3520,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="32"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="85"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="3" t="s">
         <v>25</v>
       </c>
@@ -3534,7 +3549,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="32"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="86"/>
+      <c r="V16" s="77"/>
       <c r="W16" s="3" t="s">
         <v>26</v>
       </c>
@@ -4768,10 +4783,10 @@
       <c r="S56" s="38"/>
       <c r="T56" s="50"/>
       <c r="U56" s="52"/>
-      <c r="V56" s="87" t="s">
+      <c r="V56" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="W56" s="87">
+      <c r="W56" s="88">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -4800,8 +4815,8 @@
       <c r="S57" s="38"/>
       <c r="T57" s="50"/>
       <c r="U57" s="52"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -4827,8 +4842,8 @@
       <c r="S58" s="38"/>
       <c r="T58" s="50"/>
       <c r="U58" s="52"/>
-      <c r="V58" s="89"/>
-      <c r="W58" s="89"/>
+      <c r="V58" s="90"/>
+      <c r="W58" s="90"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -6115,6 +6130,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -6125,16 +6150,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_LapDat.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
   </si>
 </sst>
 </file>
@@ -681,6 +687,72 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,36 +762,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -734,42 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,42 +1115,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -1187,57 +1193,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="84" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1262,23 +1268,23 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1303,7 +1309,7 @@
       <c r="R6" s="56"/>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1333,7 +1339,7 @@
       <c r="R7" s="56"/>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1361,7 +1367,7 @@
       <c r="R8" s="56"/>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1389,7 +1395,7 @@
       <c r="R9" s="56"/>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1417,7 +1423,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1445,7 +1451,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1473,7 +1479,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1503,7 +1509,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1531,7 +1537,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1559,7 +1565,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="64"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1587,7 +1593,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="65"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2721,6 +2727,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2734,11 +2745,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2749,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2763,7 +2769,7 @@
     <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
     <col min="7" max="7" width="17" style="23" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="92" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="74" customWidth="1"/>
     <col min="10" max="10" width="53" style="23" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="23" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="30" customWidth="1"/>
@@ -2781,44 +2787,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
-      <c r="I2" s="81"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="26"/>
@@ -2843,7 +2849,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="82"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -2860,58 +2866,58 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="91" t="s">
         <v>66</v>
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="66" t="s">
+      <c r="W4" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -2933,27 +2939,27 @@
       <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2976,7 +2982,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="56"/>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="66" t="s">
         <v>71</v>
       </c>
       <c r="J6" s="58" t="s">
@@ -3009,7 +3015,7 @@
       </c>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="63" t="s">
+      <c r="V6" s="85" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -3037,7 +3043,7 @@
         <v>69</v>
       </c>
       <c r="H7" s="56"/>
-      <c r="I7" s="84" t="s">
+      <c r="I7" s="66" t="s">
         <v>71</v>
       </c>
       <c r="J7" s="58" t="s">
@@ -3070,7 +3076,7 @@
       </c>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="64"/>
+      <c r="V7" s="86"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3079,27 +3085,57 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="55">
+        <v>44211</v>
+      </c>
+      <c r="C8" s="55">
+        <v>44211</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="57">
+        <v>868926034004074</v>
+      </c>
       <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
+      <c r="G8" s="56" t="s">
+        <v>69</v>
+      </c>
       <c r="H8" s="56"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
+      <c r="I8" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>75</v>
+      </c>
       <c r="N8" s="60"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="64"/>
+      <c r="V8" s="86"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3115,7 +3151,7 @@
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="84"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="58"/>
       <c r="K9" s="1"/>
       <c r="L9" s="61"/>
@@ -3128,7 +3164,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="64"/>
+      <c r="V9" s="86"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3144,7 +3180,7 @@
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
-      <c r="I10" s="84"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="58"/>
       <c r="K10" s="61"/>
       <c r="L10" s="58"/>
@@ -3157,7 +3193,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="64"/>
+      <c r="V10" s="86"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3173,7 +3209,7 @@
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
       <c r="H11" s="56"/>
-      <c r="I11" s="84"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="58"/>
       <c r="K11" s="61"/>
       <c r="L11" s="1"/>
@@ -3186,7 +3222,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="64"/>
+      <c r="V11" s="86"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3202,7 +3238,7 @@
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
       <c r="H12" s="56"/>
-      <c r="I12" s="84"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="58"/>
       <c r="K12" s="1"/>
       <c r="L12" s="61"/>
@@ -3215,7 +3251,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="63" t="s">
+      <c r="V12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -3233,7 +3269,7 @@
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
       <c r="H13" s="56"/>
-      <c r="I13" s="84"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="58"/>
       <c r="K13" s="59"/>
       <c r="L13" s="1"/>
@@ -3246,7 +3282,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="64"/>
+      <c r="V13" s="86"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3262,7 +3298,7 @@
       <c r="F14" s="56"/>
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
-      <c r="I14" s="85"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="1"/>
       <c r="K14" s="58"/>
       <c r="L14" s="1"/>
@@ -3275,7 +3311,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="64"/>
+      <c r="V14" s="86"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3291,7 +3327,7 @@
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="56"/>
-      <c r="I15" s="85"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3304,7 +3340,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="64"/>
+      <c r="V15" s="86"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3320,7 +3356,7 @@
       <c r="F16" s="56"/>
       <c r="G16" s="56"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="85"/>
+      <c r="I16" s="67"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3333,7 +3369,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="65"/>
+      <c r="V16" s="87"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -3349,7 +3385,7 @@
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
       <c r="H17" s="56"/>
-      <c r="I17" s="86"/>
+      <c r="I17" s="68"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3376,7 +3412,7 @@
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
       <c r="H18" s="56"/>
-      <c r="I18" s="87"/>
+      <c r="I18" s="69"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="1"/>
@@ -3403,7 +3439,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="86"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3434,7 +3470,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="86"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3466,7 +3502,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="86"/>
+      <c r="I21" s="68"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3498,7 +3534,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="88"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -3516,7 +3552,7 @@
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3530,7 +3566,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="88"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3557,7 +3593,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="88"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3584,7 +3620,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="88"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -3615,7 +3651,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="88"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -3647,7 +3683,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="88"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -3679,7 +3715,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="86"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3711,7 +3747,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="86"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3743,7 +3779,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="86"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3775,7 +3811,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="86"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3793,7 +3829,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3807,7 +3843,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="86"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3839,7 +3875,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="86"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3871,7 +3907,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="86"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3903,7 +3939,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="86"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3921,7 +3957,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3935,7 +3971,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="86"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3967,7 +4003,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="86"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3985,7 +4021,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3999,7 +4035,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="86"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4026,7 +4062,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="86"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4053,7 +4089,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="86"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4085,7 +4121,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="86"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4117,7 +4153,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="86"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4144,7 +4180,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="86"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4171,7 +4207,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="86"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4202,7 +4238,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="86"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4234,7 +4270,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="86"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4266,7 +4302,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="86"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4298,7 +4334,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="86"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4316,7 +4352,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4330,7 +4366,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="86"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4362,7 +4398,7 @@
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="89"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
@@ -4394,7 +4430,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="86"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4426,7 +4462,7 @@
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
-      <c r="I52" s="90"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="39"/>
       <c r="K52" s="39"/>
       <c r="L52" s="40"/>
@@ -4458,7 +4494,7 @@
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
-      <c r="I53" s="90"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="39"/>
       <c r="K53" s="39"/>
       <c r="L53" s="40"/>
@@ -4490,7 +4526,7 @@
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
-      <c r="I54" s="91"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="47"/>
       <c r="K54" s="47"/>
       <c r="L54" s="48"/>
@@ -4522,7 +4558,7 @@
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
-      <c r="I55" s="90"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="39"/>
       <c r="K55" s="39"/>
       <c r="L55" s="40"/>
@@ -4554,7 +4590,7 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
-      <c r="I56" s="90"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="39"/>
       <c r="K56" s="39"/>
       <c r="L56" s="40"/>
@@ -4567,10 +4603,10 @@
       <c r="S56" s="39"/>
       <c r="T56" s="51"/>
       <c r="U56" s="53"/>
-      <c r="V56" s="76" t="s">
+      <c r="V56" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="W56" s="76">
+      <c r="W56" s="88">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -4586,7 +4622,7 @@
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
-      <c r="I57" s="90"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="39"/>
       <c r="K57" s="39"/>
       <c r="L57" s="40"/>
@@ -4599,8 +4635,8 @@
       <c r="S57" s="39"/>
       <c r="T57" s="51"/>
       <c r="U57" s="53"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="77"/>
+      <c r="V57" s="89"/>
+      <c r="W57" s="89"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -4613,7 +4649,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
-      <c r="I58" s="90"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="39"/>
       <c r="K58" s="39"/>
       <c r="L58" s="40"/>
@@ -4626,8 +4662,8 @@
       <c r="S58" s="39"/>
       <c r="T58" s="51"/>
       <c r="U58" s="53"/>
-      <c r="V58" s="78"/>
-      <c r="W58" s="78"/>
+      <c r="V58" s="90"/>
+      <c r="W58" s="90"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4640,7 +4676,7 @@
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
-      <c r="I59" s="90"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="39"/>
       <c r="K59" s="39"/>
       <c r="L59" s="40"/>
@@ -4667,7 +4703,7 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
-      <c r="I60" s="90"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="39"/>
       <c r="K60" s="39"/>
       <c r="L60" s="40"/>
@@ -4694,7 +4730,7 @@
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
-      <c r="I61" s="90"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="39"/>
       <c r="K61" s="39"/>
       <c r="L61" s="40"/>
@@ -4726,7 +4762,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
-      <c r="I62" s="90"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="39"/>
       <c r="K62" s="39"/>
       <c r="L62" s="40"/>
@@ -4758,7 +4794,7 @@
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
-      <c r="I63" s="90"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="39"/>
       <c r="K63" s="39"/>
       <c r="L63" s="40"/>
@@ -4785,7 +4821,7 @@
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
-      <c r="I64" s="90"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="39"/>
       <c r="K64" s="39"/>
       <c r="L64" s="40"/>
@@ -4812,7 +4848,7 @@
       <c r="F65" s="39"/>
       <c r="G65" s="39"/>
       <c r="H65" s="39"/>
-      <c r="I65" s="90"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="39"/>
       <c r="K65" s="39"/>
       <c r="L65" s="40"/>
@@ -4839,7 +4875,7 @@
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
-      <c r="I66" s="90"/>
+      <c r="I66" s="72"/>
       <c r="J66" s="39"/>
       <c r="K66" s="39"/>
       <c r="L66" s="40"/>
@@ -4866,7 +4902,7 @@
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
-      <c r="I67" s="90"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="39"/>
       <c r="K67" s="39"/>
       <c r="L67" s="40"/>
@@ -4896,7 +4932,7 @@
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
-      <c r="I68" s="90"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="39"/>
       <c r="K68" s="39"/>
       <c r="L68" s="40"/>
@@ -4923,7 +4959,7 @@
       <c r="F69" s="39"/>
       <c r="G69" s="39"/>
       <c r="H69" s="39"/>
-      <c r="I69" s="90"/>
+      <c r="I69" s="72"/>
       <c r="J69" s="39"/>
       <c r="K69" s="39"/>
       <c r="L69" s="40"/>
@@ -4950,7 +4986,7 @@
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
       <c r="H70" s="39"/>
-      <c r="I70" s="90"/>
+      <c r="I70" s="72"/>
       <c r="J70" s="39"/>
       <c r="K70" s="39"/>
       <c r="L70" s="40"/>
@@ -4977,7 +5013,7 @@
       <c r="F71" s="39"/>
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
-      <c r="I71" s="90"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="39"/>
       <c r="K71" s="39"/>
       <c r="L71" s="40"/>
@@ -5004,7 +5040,7 @@
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
-      <c r="I72" s="90"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="39"/>
       <c r="K72" s="39"/>
       <c r="L72" s="40"/>
@@ -5031,7 +5067,7 @@
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
       <c r="H73" s="39"/>
-      <c r="I73" s="90"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="39"/>
       <c r="K73" s="39"/>
       <c r="L73" s="40"/>
@@ -5058,7 +5094,7 @@
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
       <c r="H74" s="39"/>
-      <c r="I74" s="90"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="39"/>
       <c r="K74" s="39"/>
       <c r="L74" s="40"/>
@@ -5085,7 +5121,7 @@
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
       <c r="H75" s="39"/>
-      <c r="I75" s="90"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="39"/>
       <c r="K75" s="39"/>
       <c r="L75" s="40"/>
@@ -5112,7 +5148,7 @@
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
       <c r="H76" s="39"/>
-      <c r="I76" s="90"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="39"/>
       <c r="K76" s="39"/>
       <c r="L76" s="40"/>
@@ -5139,7 +5175,7 @@
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
-      <c r="I77" s="90"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="39"/>
       <c r="K77" s="39"/>
       <c r="L77" s="40"/>
@@ -5166,7 +5202,7 @@
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
       <c r="H78" s="39"/>
-      <c r="I78" s="90"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="39"/>
       <c r="K78" s="39"/>
       <c r="L78" s="40"/>
@@ -5193,7 +5229,7 @@
       <c r="F79" s="39"/>
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
-      <c r="I79" s="90"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="39"/>
       <c r="K79" s="39"/>
       <c r="L79" s="40"/>
@@ -5220,7 +5256,7 @@
       <c r="F80" s="39"/>
       <c r="G80" s="39"/>
       <c r="H80" s="39"/>
-      <c r="I80" s="90"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="39"/>
       <c r="K80" s="39"/>
       <c r="L80" s="40"/>
@@ -5247,7 +5283,7 @@
       <c r="F81" s="39"/>
       <c r="G81" s="39"/>
       <c r="H81" s="39"/>
-      <c r="I81" s="90"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="39"/>
       <c r="K81" s="39"/>
       <c r="L81" s="40"/>
@@ -5274,7 +5310,7 @@
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
       <c r="H82" s="39"/>
-      <c r="I82" s="90"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="39"/>
       <c r="K82" s="39"/>
       <c r="L82" s="40"/>
@@ -5301,7 +5337,7 @@
       <c r="F83" s="39"/>
       <c r="G83" s="39"/>
       <c r="H83" s="39"/>
-      <c r="I83" s="90"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="39"/>
       <c r="K83" s="39"/>
       <c r="L83" s="40"/>
@@ -5328,7 +5364,7 @@
       <c r="F84" s="39"/>
       <c r="G84" s="39"/>
       <c r="H84" s="39"/>
-      <c r="I84" s="90"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="39"/>
       <c r="K84" s="39"/>
       <c r="L84" s="40"/>
@@ -5355,7 +5391,7 @@
       <c r="F85" s="39"/>
       <c r="G85" s="39"/>
       <c r="H85" s="39"/>
-      <c r="I85" s="90"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="39"/>
       <c r="K85" s="39"/>
       <c r="L85" s="40"/>
@@ -5382,7 +5418,7 @@
       <c r="F86" s="39"/>
       <c r="G86" s="39"/>
       <c r="H86" s="39"/>
-      <c r="I86" s="90"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="39"/>
       <c r="K86" s="39"/>
       <c r="L86" s="40"/>
@@ -5409,7 +5445,7 @@
       <c r="F87" s="39"/>
       <c r="G87" s="39"/>
       <c r="H87" s="39"/>
-      <c r="I87" s="90"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="39"/>
       <c r="K87" s="39"/>
       <c r="L87" s="40"/>
@@ -5436,7 +5472,7 @@
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
       <c r="H88" s="39"/>
-      <c r="I88" s="90"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="39"/>
       <c r="K88" s="39"/>
       <c r="L88" s="40"/>
@@ -5463,7 +5499,7 @@
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
-      <c r="I89" s="90"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="39"/>
       <c r="K89" s="39"/>
       <c r="L89" s="40"/>
@@ -5490,7 +5526,7 @@
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
-      <c r="I90" s="90"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="39"/>
       <c r="K90" s="39"/>
       <c r="L90" s="40"/>
@@ -5517,7 +5553,7 @@
       <c r="F91" s="39"/>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
-      <c r="I91" s="90"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="39"/>
       <c r="K91" s="39"/>
       <c r="L91" s="40"/>
@@ -5544,7 +5580,7 @@
       <c r="F92" s="39"/>
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
-      <c r="I92" s="90"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="39"/>
       <c r="K92" s="39"/>
       <c r="L92" s="40"/>
@@ -5571,7 +5607,7 @@
       <c r="F93" s="39"/>
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
-      <c r="I93" s="90"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="39"/>
       <c r="K93" s="39"/>
       <c r="L93" s="40"/>
@@ -5598,7 +5634,7 @@
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
       <c r="H94" s="39"/>
-      <c r="I94" s="90"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="39"/>
       <c r="K94" s="39"/>
       <c r="L94" s="40"/>
@@ -5625,7 +5661,7 @@
       <c r="F95" s="39"/>
       <c r="G95" s="39"/>
       <c r="H95" s="39"/>
-      <c r="I95" s="90"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="39"/>
       <c r="K95" s="39"/>
       <c r="L95" s="40"/>
@@ -5652,7 +5688,7 @@
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
       <c r="H96" s="39"/>
-      <c r="I96" s="90"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="39"/>
       <c r="K96" s="39"/>
       <c r="L96" s="40"/>
@@ -5679,7 +5715,7 @@
       <c r="F97" s="39"/>
       <c r="G97" s="39"/>
       <c r="H97" s="39"/>
-      <c r="I97" s="90"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="39"/>
       <c r="K97" s="39"/>
       <c r="L97" s="40"/>
@@ -5706,7 +5742,7 @@
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
       <c r="H98" s="39"/>
-      <c r="I98" s="90"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="39"/>
       <c r="K98" s="39"/>
       <c r="L98" s="40"/>
@@ -5733,7 +5769,7 @@
       <c r="F99" s="39"/>
       <c r="G99" s="39"/>
       <c r="H99" s="39"/>
-      <c r="I99" s="90"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="39"/>
       <c r="K99" s="39"/>
       <c r="L99" s="40"/>
@@ -5760,7 +5796,7 @@
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
       <c r="H100" s="39"/>
-      <c r="I100" s="90"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="39"/>
       <c r="K100" s="39"/>
       <c r="L100" s="40"/>
@@ -5787,7 +5823,7 @@
       <c r="F101" s="39"/>
       <c r="G101" s="39"/>
       <c r="H101" s="39"/>
-      <c r="I101" s="90"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="39"/>
       <c r="K101" s="39"/>
       <c r="L101" s="40"/>
@@ -5814,7 +5850,7 @@
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
       <c r="H102" s="39"/>
-      <c r="I102" s="90"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="39"/>
       <c r="K102" s="39"/>
       <c r="L102" s="40"/>
@@ -5841,7 +5877,7 @@
       <c r="F103" s="39"/>
       <c r="G103" s="39"/>
       <c r="H103" s="39"/>
-      <c r="I103" s="90"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="39"/>
       <c r="K103" s="39"/>
       <c r="L103" s="40"/>
@@ -5868,7 +5904,7 @@
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
       <c r="H104" s="39"/>
-      <c r="I104" s="90"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="39"/>
       <c r="K104" s="39"/>
       <c r="L104" s="40"/>
@@ -5895,7 +5931,7 @@
       <c r="F105" s="39"/>
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
-      <c r="I105" s="90"/>
+      <c r="I105" s="72"/>
       <c r="J105" s="39"/>
       <c r="K105" s="39"/>
       <c r="L105" s="40"/>
@@ -5914,6 +5950,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -5924,16 +5970,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_LapDat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -313,6 +313,33 @@
   </si>
   <si>
     <t>Thay module GPS, nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Không khắc phục</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1154,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="73" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="29" customWidth="1"/>
@@ -1183,7 +1210,7 @@
       <c r="F2" s="85"/>
       <c r="G2" s="5"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
@@ -1207,7 +1234,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1295,7 +1322,7 @@
       <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="64" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="78"/>
@@ -1788,24 +1815,56 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
+      <c r="B14" s="54">
+        <v>44216</v>
+      </c>
+      <c r="C14" s="54">
+        <v>44216</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="56">
+        <v>869627031774615</v>
+      </c>
       <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
+      <c r="G14" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>101</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="3"/>
+      <c r="O14" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="T14" s="13"/>
       <c r="U14" s="76"/>
       <c r="V14" s="3" t="s">
@@ -1816,24 +1875,52 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="54">
+        <v>44216</v>
+      </c>
+      <c r="C15" s="54">
+        <v>44216</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="56">
+        <v>864811036981921</v>
+      </c>
       <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>88</v>
+      </c>
       <c r="J15" s="57"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
+      <c r="L15" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="3"/>
+      <c r="O15" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="T15" s="16"/>
       <c r="U15" s="76"/>
       <c r="V15" s="3" t="s">
@@ -1844,24 +1931,54 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="B16" s="54">
+        <v>44216</v>
+      </c>
+      <c r="C16" s="54">
+        <v>44216</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="56">
+        <v>868926033944577</v>
+      </c>
       <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>97</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
+      <c r="K16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="3"/>
+      <c r="O16" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="T16" s="16"/>
       <c r="U16" s="77"/>
       <c r="V16" s="3" t="s">
@@ -1872,24 +1989,54 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="B17" s="54">
+        <v>44216</v>
+      </c>
+      <c r="C17" s="54">
+        <v>44216</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="56">
+        <v>868926033943942</v>
+      </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="57"/>
+      <c r="G17" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>98</v>
+      </c>
       <c r="J17" s="57"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="57"/>
+      <c r="K17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="3"/>
+      <c r="O17" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="T17" s="16"/>
       <c r="U17" s="13"/>
       <c r="V17" s="17"/>
@@ -1898,24 +2045,52 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="B18" s="54">
+        <v>44216</v>
+      </c>
+      <c r="C18" s="54">
+        <v>44216</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="56">
+        <v>868926033944262</v>
+      </c>
       <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>98</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="3"/>
+      <c r="O18" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="18"/>
@@ -1924,24 +2099,52 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="B19" s="54">
+        <v>44216</v>
+      </c>
+      <c r="C19" s="54">
+        <v>44216</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="56">
+        <v>864811031271690</v>
+      </c>
       <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="G19" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>99</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="L19" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="3"/>
+      <c r="O19" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R19" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="T19" s="16"/>
       <c r="U19" s="4" t="s">
         <v>40</v>
@@ -1961,7 +2164,7 @@
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="67"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1992,7 +2195,7 @@
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2023,7 +2226,7 @@
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -2040,7 +2243,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,7 +2257,7 @@
       <c r="F23" s="55"/>
       <c r="G23" s="55"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2080,7 +2283,7 @@
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="67"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2106,7 +2309,7 @@
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2136,7 +2339,7 @@
       <c r="F26" s="55"/>
       <c r="G26" s="55"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2167,7 +2370,7 @@
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2198,7 +2401,7 @@
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -2229,7 +2432,7 @@
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -2260,7 +2463,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2291,7 +2494,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="67"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2322,7 +2525,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2353,7 +2556,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="67"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2384,7 +2587,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2415,7 +2618,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2432,7 +2635,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2446,7 +2649,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2477,7 +2680,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2494,7 +2697,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2508,7 +2711,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2534,7 +2737,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2560,7 +2763,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2591,7 +2794,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2608,7 +2811,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2622,7 +2825,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="67"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2648,7 +2851,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="67"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2674,7 +2877,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2700,7 +2903,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="67"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2729,7 +2932,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2758,7 +2961,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2787,7 +2990,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2800,7 +3003,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="41"/>
       <c r="V48" s="42"/>
@@ -2816,7 +3019,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="67"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2842,7 +3045,7 @@
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
+      <c r="I50" s="70"/>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
@@ -2868,7 +3071,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="67"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2894,7 +3097,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
+      <c r="I52" s="71"/>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
       <c r="L52" s="39"/>
@@ -2920,7 +3123,7 @@
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
+      <c r="I53" s="71"/>
       <c r="J53" s="38"/>
       <c r="K53" s="38"/>
       <c r="L53" s="39"/>
@@ -2946,7 +3149,7 @@
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
+      <c r="I54" s="71"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
       <c r="L54" s="39"/>
@@ -2972,7 +3175,7 @@
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
+      <c r="I55" s="71"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
       <c r="L55" s="39"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_LapDat.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="104">
   <si>
     <t>STT</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>29/01/20201</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2157,24 +2160,54 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="56">
+        <v>863586032897351</v>
+      </c>
       <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="67"/>
+      <c r="G20" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>99</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="3"/>
+      <c r="O20" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="T20" s="16"/>
       <c r="U20" s="10" t="s">
         <v>18</v>
@@ -2188,24 +2221,54 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
+      <c r="B21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="56">
+        <v>868926033934446</v>
+      </c>
       <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="67"/>
+      <c r="G21" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>98</v>
+      </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="57" t="s">
+        <v>85</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="3"/>
+      <c r="O21" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R21" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="T21" s="16"/>
       <c r="U21" s="10" t="s">
         <v>58</v>
@@ -2243,7 +2306,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2635,7 +2698,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2697,7 +2760,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
